--- a/data/trans_orig/P16B03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E68D1C6D-5826-4425-8978-B7F84C286FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FC7DF28-8400-4C98-AA5F-3F42080BC4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{04444D57-B323-4194-8FBB-2288CBBBBC79}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6A64D4E-7E4A-431C-833A-4737A72ECAA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -85,19 +85,19 @@
     <t>82,88%</t>
   </si>
   <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>85,24%</t>
   </si>
   <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,19 +115,19 @@
     <t>17,12%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -136,43 +136,43 @@
     <t>67,7%</t>
   </si>
   <si>
-    <t>17,7%</t>
+    <t>17,67%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>78,83%</t>
+    <t>79,59%</t>
   </si>
   <si>
     <t>89,04%</t>
   </si>
   <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>32,3%</t>
   </si>
   <si>
-    <t>82,3%</t>
+    <t>82,33%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>21,17%</t>
+    <t>20,41%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -181,55 +181,55 @@
     <t>49,14%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>81,99%</t>
   </si>
   <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>69,6%</t>
   </si>
   <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
   </si>
   <si>
     <t>50,86%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
   </si>
   <si>
     <t>18,01%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
   </si>
   <si>
     <t>30,4%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -238,49 +238,49 @@
     <t>70,69%</t>
   </si>
   <si>
-    <t>31,94%</t>
+    <t>17,61%</t>
   </si>
   <si>
     <t>76,79%</t>
   </si>
   <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>75,34%</t>
   </si>
   <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>68,06%</t>
+    <t>82,39%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
   </si>
   <si>
     <t>24,66%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -289,43 +289,43 @@
     <t>92,26%</t>
   </si>
   <si>
-    <t>54,62%</t>
+    <t>63,05%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>77,59%</t>
+    <t>77,06%</t>
   </si>
   <si>
     <t>92,42%</t>
   </si>
   <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>7,74%</t>
   </si>
   <si>
-    <t>45,38%</t>
+    <t>36,95%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>22,41%</t>
+    <t>22,94%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -334,109 +334,109 @@
     <t>82,92%</t>
   </si>
   <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
   </si>
   <si>
     <t>89,34%</t>
   </si>
   <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>23,64%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -742,19 +742,19 @@
     <t>75,75%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>77,56%</t>
   </si>
   <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -763,61 +763,61 @@
     <t>24,25%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
   </si>
   <si>
     <t>31,73%</t>
   </si>
   <si>
-    <t>81,93%</t>
+    <t>83,33%</t>
   </si>
   <si>
     <t>87,69%</t>
   </si>
   <si>
-    <t>62,7%</t>
+    <t>63,06%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>68,27%</t>
   </si>
   <si>
-    <t>18,07%</t>
+    <t>16,67%</t>
   </si>
   <si>
     <t>12,31%</t>
   </si>
   <si>
-    <t>37,3%</t>
+    <t>36,94%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
   </si>
   <si>
     <t>25,77%</t>
@@ -826,16 +826,16 @@
     <t>96,66%</t>
   </si>
   <si>
-    <t>82,74%</t>
+    <t>86,16%</t>
   </si>
   <si>
     <t>87,31%</t>
   </si>
   <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>74,23%</t>
@@ -844,100 +844,100 @@
     <t>3,34%</t>
   </si>
   <si>
-    <t>17,26%</t>
+    <t>13,84%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>79,39%</t>
   </si>
   <si>
-    <t>27,67%</t>
+    <t>27,2%</t>
   </si>
   <si>
     <t>74,21%</t>
   </si>
   <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>75,32%</t>
   </si>
   <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>72,33%</t>
+    <t>72,8%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>24,68%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>32,53%</t>
+    <t>33,23%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>71,27%</t>
+    <t>71,47%</t>
   </si>
   <si>
     <t>91,61%</t>
   </si>
   <si>
-    <t>73,69%</t>
+    <t>74,03%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>67,47%</t>
+    <t>66,77%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>28,73%</t>
+    <t>28,53%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>26,31%</t>
+    <t>25,97%</t>
   </si>
   <si>
     <t>94,61%</t>
@@ -949,19 +949,19 @@
     <t>91,06%</t>
   </si>
   <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>5,39%</t>
@@ -973,73 +973,73 @@
     <t>8,94%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>88,08%</t>
   </si>
   <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>85,13%</t>
   </si>
   <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFB10F0-AFD0-4EE3-990B-67BBAFB8F7A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713279B4-4000-438C-B595-0422DAA2046B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2670,7 +2670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0A86D7-7133-400B-95AD-166BC07BB670}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D898280-763A-42A6-9BCF-9C79007FB0EF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3889,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD93C8F-3522-4096-9411-FCFBF4D5FBFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E40E374-18A7-42CE-8A26-95A0D64027C7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FC7DF28-8400-4C98-AA5F-3F42080BC4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C8458A9-CEE3-4691-A3A1-43F9516F6066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6A64D4E-7E4A-431C-833A-4737A72ECAA4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78D349F8-D7BD-4F5F-96F6-4B7038BC0BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="328">
   <si>
     <t>Porcentaje de reconstituyentes recetados en 2007 (Tasa respuesta: 3,62%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>82,88%</t>
   </si>
   <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
   <si>
     <t>85,24%</t>
   </si>
   <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,19 +115,19 @@
     <t>17,12%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -136,43 +136,43 @@
     <t>67,7%</t>
   </si>
   <si>
-    <t>17,67%</t>
+    <t>32,53%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>79,59%</t>
+    <t>77,77%</t>
   </si>
   <si>
     <t>89,04%</t>
   </si>
   <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>32,3%</t>
   </si>
   <si>
-    <t>82,33%</t>
+    <t>67,47%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>20,41%</t>
+    <t>22,23%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -181,55 +181,55 @@
     <t>49,14%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
   </si>
   <si>
     <t>81,99%</t>
   </si>
   <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>69,6%</t>
   </si>
   <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>50,86%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
   </si>
   <si>
     <t>18,01%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
   </si>
   <si>
     <t>30,4%</t>
   </si>
   <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -238,49 +238,49 @@
     <t>70,69%</t>
   </si>
   <si>
-    <t>17,61%</t>
+    <t>17,03%</t>
   </si>
   <si>
     <t>76,79%</t>
   </si>
   <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>75,34%</t>
   </si>
   <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>82,39%</t>
+    <t>82,97%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
   </si>
   <si>
     <t>24,66%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -289,43 +289,43 @@
     <t>92,26%</t>
   </si>
   <si>
-    <t>63,05%</t>
+    <t>64,95%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>77,06%</t>
+    <t>77,34%</t>
   </si>
   <si>
     <t>92,42%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>7,74%</t>
   </si>
   <si>
-    <t>36,95%</t>
+    <t>35,05%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>22,94%</t>
+    <t>22,66%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -334,109 +334,109 @@
     <t>82,92%</t>
   </si>
   <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>89,34%</t>
   </si>
   <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>23,64%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -448,7 +448,7 @@
     <t>76,12%</t>
   </si>
   <si>
-    <t>25,0%</t>
+    <t>7,24%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -457,13 +457,13 @@
     <t>92,65%</t>
   </si>
   <si>
-    <t>67,16%</t>
+    <t>62,66%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>75,0%</t>
+    <t>92,76%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -472,574 +472,556 @@
     <t>7,35%</t>
   </si>
   <si>
-    <t>32,84%</t>
+    <t>37,34%</t>
   </si>
   <si>
     <t>60,28%</t>
   </si>
   <si>
-    <t>16,61%</t>
+    <t>9,22%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>71,72%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2016 (Tasa respuesta: 2,69%)</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2015 (Tasa respuesta: 2,69%)</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
+    <t>28,02%</t>
   </si>
   <si>
     <t>79,39%</t>
   </si>
   <si>
-    <t>27,2%</t>
+    <t>27,8%</t>
   </si>
   <si>
     <t>74,21%</t>
   </si>
   <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
   </si>
   <si>
     <t>75,32%</t>
   </si>
   <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>72,8%</t>
+    <t>72,2%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
   </si>
   <si>
     <t>24,68%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>33,23%</t>
+    <t>30,39%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>71,47%</t>
+    <t>75,72%</t>
   </si>
   <si>
     <t>91,61%</t>
   </si>
   <si>
-    <t>74,03%</t>
+    <t>78,14%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>66,77%</t>
+    <t>69,61%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>28,53%</t>
+    <t>24,28%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>25,97%</t>
+    <t>21,86%</t>
   </si>
   <si>
     <t>94,61%</t>
   </si>
   <si>
-    <t>77,99%</t>
+    <t>72,44%</t>
   </si>
   <si>
     <t>91,06%</t>
   </si>
   <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>22,01%</t>
+    <t>27,56%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
   </si>
   <si>
     <t>88,08%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>85,13%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713279B4-4000-438C-B595-0422DAA2046B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5A297D-F5AB-4100-B18D-876A6C5060A2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2670,7 +2652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D898280-763A-42A6-9BCF-9C79007FB0EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58F5F88-1BE8-42E4-B480-F7D0F2D4BB06}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2979,13 +2961,13 @@
         <v>33980</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +2982,13 @@
         <v>3053</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3015,13 +2997,13 @@
         <v>3919</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3030,13 +3012,13 @@
         <v>6972</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3086,13 @@
         <v>2165</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -3119,10 +3101,10 @@
         <v>39463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -3134,13 +3116,13 @@
         <v>41628</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,10 +3137,10 @@
         <v>2740</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>11</v>
@@ -3170,13 +3152,13 @@
         <v>1019</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3185,13 +3167,13 @@
         <v>3759</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,10 +3241,10 @@
         <v>4165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3274,10 +3256,10 @@
         <v>24436</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3289,13 +3271,13 @@
         <v>28601</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3292,13 @@
         <v>1131</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3325,13 +3307,13 @@
         <v>3074</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3340,13 +3322,13 @@
         <v>4206</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,7 +3396,7 @@
         <v>2129</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>21</v>
@@ -3429,10 +3411,10 @@
         <v>24945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -3444,13 +3426,13 @@
         <v>27074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,7 +3447,7 @@
         <v>812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
@@ -3480,13 +3462,13 @@
         <v>2068</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3495,13 +3477,13 @@
         <v>2881</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,7 +3554,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3584,13 +3566,13 @@
         <v>72718</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -3599,13 +3581,13 @@
         <v>91611</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,7 +3608,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3635,13 +3617,13 @@
         <v>3123</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3650,13 +3632,13 @@
         <v>3123</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3706,13 @@
         <v>35005</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -3739,13 +3721,13 @@
         <v>199826</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="M22" s="7">
         <v>214</v>
@@ -3754,13 +3736,13 @@
         <v>234830</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3757,13 @@
         <v>8684</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -3790,13 +3772,13 @@
         <v>13204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -3805,13 +3787,13 @@
         <v>21889</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E40E374-18A7-42CE-8A26-95A0D64027C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F531036-DF78-40B8-863C-012F4AA5D032}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3906,7 +3888,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4016,7 +3998,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -4028,13 +4010,13 @@
         <v>8755</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4043,13 +4025,13 @@
         <v>9687</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,7 +4052,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4079,13 +4061,13 @@
         <v>2803</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4094,13 +4076,13 @@
         <v>2803</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4150,13 @@
         <v>1887</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4183,10 +4165,10 @@
         <v>13151</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -4198,13 +4180,13 @@
         <v>15038</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,10 +4201,10 @@
         <v>4060</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>11</v>
@@ -4234,13 +4216,13 @@
         <v>1847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -4249,13 +4231,13 @@
         <v>5906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4305,13 @@
         <v>1055</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4338,10 +4320,10 @@
         <v>26070</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -4353,13 +4335,13 @@
         <v>27126</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,10 +4356,10 @@
         <v>3040</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>11</v>
@@ -4389,13 +4371,13 @@
         <v>902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -4404,13 +4386,13 @@
         <v>3941</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,10 +4460,10 @@
         <v>5344</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -4493,13 +4475,13 @@
         <v>18459</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4508,13 +4490,13 @@
         <v>23802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4511,13 @@
         <v>1387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4544,13 +4526,13 @@
         <v>6413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4559,13 +4541,13 @@
         <v>7801</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,10 +4615,10 @@
         <v>6449</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -4648,10 +4630,10 @@
         <v>18424</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4663,10 +4645,10 @@
         <v>24873</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4684,13 +4666,13 @@
         <v>1175</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4699,13 +4681,13 @@
         <v>1103</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4714,13 +4696,13 @@
         <v>2278</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,10 +4770,10 @@
         <v>16226</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -4803,13 +4785,13 @@
         <v>42733</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -4818,13 +4800,13 @@
         <v>58959</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4821,13 @@
         <v>924</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4854,13 +4836,13 @@
         <v>4194</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4869,13 +4851,13 @@
         <v>5119</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4925,13 @@
         <v>31892</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
         <v>118</v>
@@ -4958,13 +4940,13 @@
         <v>127592</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
@@ -4973,13 +4955,13 @@
         <v>159485</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4976,13 @@
         <v>10586</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -5009,13 +4991,13 @@
         <v>17262</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -5024,13 +5006,13 @@
         <v>27848</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C8458A9-CEE3-4691-A3A1-43F9516F6066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C2DFC31-E84D-4FAF-8DC3-BEFDAFF65E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78D349F8-D7BD-4F5F-96F6-4B7038BC0BFB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5C6DE19A-8FE3-49F5-B86E-C4295C89BC06}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="334">
   <si>
     <t>Porcentaje de reconstituyentes recetados en 2007 (Tasa respuesta: 3,62%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,19 +85,19 @@
     <t>82,88%</t>
   </si>
   <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>85,24%</t>
   </si>
   <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,19 +115,19 @@
     <t>17,12%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -136,892 +136,910 @@
     <t>67,7%</t>
   </si>
   <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2016 (Tasa respuesta: 2,69%)</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
     <t>32,53%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>67,47%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2016 (Tasa respuesta: 2,69%)</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>24,28%</t>
+    <t>28,73%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>21,86%</t>
+    <t>26,31%</t>
   </si>
   <si>
     <t>94,61%</t>
   </si>
   <si>
-    <t>72,44%</t>
+    <t>77,99%</t>
   </si>
   <si>
     <t>91,06%</t>
   </si>
   <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>27,56%</t>
+    <t>22,01%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>88,08%</t>
   </si>
   <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>85,13%</t>
   </si>
   <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5A297D-F5AB-4100-B18D-876A6C5060A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B18A727-03E6-4FC4-A098-4C2C817168BD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2652,7 +2670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58F5F88-1BE8-42E4-B480-F7D0F2D4BB06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C9274E-B831-4D2B-833F-5E93BC93C3A9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2961,13 +2979,13 @@
         <v>33980</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +3000,13 @@
         <v>3053</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -2997,13 +3015,13 @@
         <v>3919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3012,13 +3030,13 @@
         <v>6972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3104,13 @@
         <v>2165</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -3101,10 +3119,10 @@
         <v>39463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -3116,13 +3134,13 @@
         <v>41628</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,10 +3155,10 @@
         <v>2740</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>11</v>
@@ -3152,13 +3170,13 @@
         <v>1019</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3167,13 +3185,13 @@
         <v>3759</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,10 +3259,10 @@
         <v>4165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3256,10 +3274,10 @@
         <v>24436</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3271,13 +3289,13 @@
         <v>28601</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3310,13 @@
         <v>1131</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3307,13 +3325,13 @@
         <v>3074</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3322,13 +3340,13 @@
         <v>4206</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,7 +3414,7 @@
         <v>2129</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>21</v>
@@ -3411,10 +3429,10 @@
         <v>24945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -3426,13 +3444,13 @@
         <v>27074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,7 +3465,7 @@
         <v>812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
@@ -3462,13 +3480,13 @@
         <v>2068</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3477,13 +3495,13 @@
         <v>2881</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,7 +3572,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3566,13 +3584,13 @@
         <v>72718</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -3581,13 +3599,13 @@
         <v>91611</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,7 +3626,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3617,13 +3635,13 @@
         <v>3123</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3632,13 +3650,13 @@
         <v>3123</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3724,13 @@
         <v>35005</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -3721,13 +3739,13 @@
         <v>199826</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="M22" s="7">
         <v>214</v>
@@ -3736,13 +3754,13 @@
         <v>234830</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3775,13 @@
         <v>8684</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -3772,13 +3790,13 @@
         <v>13204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -3787,13 +3805,13 @@
         <v>21889</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F531036-DF78-40B8-863C-012F4AA5D032}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87168666-A65C-42A5-8F8A-ECA4346A9A3F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3888,7 +3906,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3998,7 +4016,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -4010,13 +4028,13 @@
         <v>8755</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4025,13 +4043,13 @@
         <v>9687</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,7 +4070,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4061,13 +4079,13 @@
         <v>2803</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4076,13 +4094,13 @@
         <v>2803</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4168,13 @@
         <v>1887</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4165,10 +4183,10 @@
         <v>13151</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -4180,13 +4198,13 @@
         <v>15038</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,10 +4219,10 @@
         <v>4060</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>11</v>
@@ -4216,13 +4234,13 @@
         <v>1847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -4231,13 +4249,13 @@
         <v>5906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4323,13 @@
         <v>1055</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4320,10 +4338,10 @@
         <v>26070</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -4335,13 +4353,13 @@
         <v>27126</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,10 +4374,10 @@
         <v>3040</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>11</v>
@@ -4371,13 +4389,13 @@
         <v>902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -4386,13 +4404,13 @@
         <v>3941</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,10 +4478,10 @@
         <v>5344</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -4475,13 +4493,13 @@
         <v>18459</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4490,13 +4508,13 @@
         <v>23802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4529,13 @@
         <v>1387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4526,13 +4544,13 @@
         <v>6413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4541,13 +4559,13 @@
         <v>7801</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,10 +4633,10 @@
         <v>6449</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -4630,10 +4648,10 @@
         <v>18424</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4645,10 +4663,10 @@
         <v>24873</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4666,13 +4684,13 @@
         <v>1175</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4681,13 +4699,13 @@
         <v>1103</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4696,13 +4714,13 @@
         <v>2278</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,10 +4788,10 @@
         <v>16226</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -4785,13 +4803,13 @@
         <v>42733</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -4800,13 +4818,13 @@
         <v>58959</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4839,13 @@
         <v>924</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4836,13 +4854,13 @@
         <v>4194</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4851,13 +4869,13 @@
         <v>5119</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4943,13 @@
         <v>31892</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H22" s="7">
         <v>118</v>
@@ -4940,13 +4958,13 @@
         <v>127592</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
@@ -4955,13 +4973,13 @@
         <v>159485</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4994,13 @@
         <v>10586</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -4991,13 +5009,13 @@
         <v>17262</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -5006,13 +5024,13 @@
         <v>27848</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C2DFC31-E84D-4FAF-8DC3-BEFDAFF65E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{641008E4-E8C3-4A65-B865-D1633756B7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5C6DE19A-8FE3-49F5-B86E-C4295C89BC06}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CBACBB17-F9D6-492B-A441-153B227C5695}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="355">
   <si>
     <t>Porcentaje de reconstituyentes recetados en 2007 (Tasa respuesta: 3,62%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -130,7 +130,7 @@
     <t>35,37%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>67,7%</t>
@@ -175,7 +175,7 @@
     <t>23,31%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>49,14%</t>
@@ -232,7 +232,7 @@
     <t>47,39%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>70,69%</t>
@@ -283,7 +283,7 @@
     <t>40,1%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>92,26%</t>
@@ -328,61 +328,100 @@
     <t>18,75%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
   </si>
   <si>
     <t>76,36%</t>
@@ -637,46 +676,58 @@
     <t>2,69%</t>
   </si>
   <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
   </si>
   <si>
     <t>80,12%</t>
@@ -940,52 +991,64 @@
     <t>26,31%</t>
   </si>
   <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>75,08%</t>
@@ -1451,8 +1514,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B18A727-03E6-4FC4-A098-4C2C817168BD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66658B62-99FB-47DF-9F92-8E3E98C80E24}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2344,10 +2407,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>24757</v>
+        <v>10690</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>97</v>
@@ -2356,37 +2419,37 @@
         <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7">
+        <v>35</v>
+      </c>
+      <c r="I19" s="7">
+        <v>32300</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="7">
-        <v>56</v>
-      </c>
-      <c r="I19" s="7">
-        <v>55260</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>45</v>
+      </c>
+      <c r="N19" s="7">
+        <v>42990</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M19" s="7">
-        <v>79</v>
-      </c>
-      <c r="N19" s="7">
-        <v>80017</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,19 +2458,19 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>5101</v>
+        <v>1686</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2416,28 +2479,28 @@
         <v>2836</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>5</v>
+      </c>
+      <c r="N20" s="7">
+        <v>4522</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M20" s="7">
-        <v>8</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7937</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,10 +2509,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D21" s="7">
-        <v>29858</v>
+        <v>12376</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -2461,10 +2524,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I21" s="7">
-        <v>58096</v>
+        <v>35136</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -2476,10 +2539,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="N21" s="7">
-        <v>87954</v>
+        <v>47512</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -2493,55 +2556,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7">
-        <v>52475</v>
+        <v>14067</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>21</v>
+      </c>
+      <c r="I22" s="7">
+        <v>22961</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="7">
-        <v>152</v>
-      </c>
-      <c r="I22" s="7">
-        <v>153799</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="7">
+        <v>34</v>
+      </c>
+      <c r="N22" s="7">
+        <v>37027</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="M22" s="7">
-        <v>201</v>
-      </c>
-      <c r="N22" s="7">
-        <v>206274</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,49 +2613,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>16247</v>
+        <v>3415</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>3</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3415</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="7">
-        <v>19</v>
-      </c>
-      <c r="I23" s="7">
-        <v>18361</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M23" s="7">
-        <v>35</v>
-      </c>
-      <c r="N23" s="7">
-        <v>34608</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,63 +2664,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>16</v>
+      </c>
+      <c r="D24" s="7">
+        <v>17482</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>21</v>
+      </c>
+      <c r="I24" s="7">
+        <v>22961</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>37</v>
+      </c>
+      <c r="N24" s="7">
+        <v>40442</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>49</v>
+      </c>
+      <c r="D25" s="7">
+        <v>52475</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="7">
+        <v>152</v>
+      </c>
+      <c r="I25" s="7">
+        <v>153800</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="7">
+        <v>201</v>
+      </c>
+      <c r="N25" s="7">
+        <v>206274</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>16</v>
+      </c>
+      <c r="D26" s="7">
+        <v>16247</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="7">
+        <v>19</v>
+      </c>
+      <c r="I26" s="7">
+        <v>18361</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="7">
+        <v>35</v>
+      </c>
+      <c r="N26" s="7">
+        <v>34608</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>65</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>68722</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>171</v>
       </c>
-      <c r="I24" s="7">
-        <v>172160</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>172161</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>236</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>240882</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>133</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2670,8 +2889,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C9274E-B831-4D2B-833F-5E93BC93C3A9}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4007A4AF-7010-4D88-92EA-672002DD3FEC}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2687,7 +2906,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2794,10 +3013,10 @@
         <v>3020</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2812,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2824,10 +3043,10 @@
         <v>11937</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -2845,13 +3064,13 @@
         <v>947</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2866,7 +3085,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2875,13 +3094,13 @@
         <v>947</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,10 +3168,10 @@
         <v>4634</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -2964,13 +3183,13 @@
         <v>29346</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -2979,13 +3198,13 @@
         <v>33980</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3219,13 @@
         <v>3053</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3015,13 +3234,13 @@
         <v>3919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3030,13 +3249,13 @@
         <v>6972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3323,13 @@
         <v>2165</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -3119,10 +3338,10 @@
         <v>39463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -3134,13 +3353,13 @@
         <v>41628</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,10 +3374,10 @@
         <v>2740</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>11</v>
@@ -3170,13 +3389,13 @@
         <v>1019</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3185,13 +3404,13 @@
         <v>3759</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,10 +3478,10 @@
         <v>4165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3274,10 +3493,10 @@
         <v>24436</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3289,13 +3508,13 @@
         <v>28601</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3529,13 @@
         <v>1131</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3325,13 +3544,13 @@
         <v>3074</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3340,13 +3559,13 @@
         <v>4206</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,7 +3633,7 @@
         <v>2129</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>21</v>
@@ -3429,10 +3648,10 @@
         <v>24945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -3444,13 +3663,13 @@
         <v>27074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,7 +3684,7 @@
         <v>812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
@@ -3480,13 +3699,13 @@
         <v>2068</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3495,10 +3714,10 @@
         <v>2881</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>75</v>
@@ -3563,49 +3782,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>18893</v>
+        <v>10145</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>72718</v>
+        <v>26381</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="N19" s="7">
-        <v>91611</v>
+        <v>36526</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,37 +3845,37 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>3123</v>
+        <v>1991</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>3123</v>
+        <v>1991</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,10 +3884,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="7">
-        <v>18893</v>
+        <v>10145</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -3680,10 +3899,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I21" s="7">
-        <v>75841</v>
+        <v>28372</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -3695,10 +3914,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="N21" s="7">
-        <v>94734</v>
+        <v>38517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -3712,55 +3931,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>35005</v>
+        <v>8748</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="I22" s="7">
-        <v>199826</v>
+        <v>46336</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="M22" s="7">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="N22" s="7">
-        <v>234830</v>
+        <v>55084</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,49 +3988,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>8684</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H23" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>13204</v>
+        <v>1133</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>227</v>
       </c>
       <c r="M23" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>21889</v>
+        <v>1133</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>228</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,63 +4039,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8748</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>43</v>
+      </c>
+      <c r="I24" s="7">
+        <v>47469</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>49</v>
+      </c>
+      <c r="N24" s="7">
+        <v>56217</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>31</v>
+      </c>
+      <c r="D25" s="7">
+        <v>35005</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H25" s="7">
+        <v>183</v>
+      </c>
+      <c r="I25" s="7">
+        <v>199826</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" s="7">
+        <v>214</v>
+      </c>
+      <c r="N25" s="7">
+        <v>234830</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>8684</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H26" s="7">
+        <v>12</v>
+      </c>
+      <c r="I26" s="7">
+        <v>13204</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" s="7">
+        <v>20</v>
+      </c>
+      <c r="N26" s="7">
+        <v>21889</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>39</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>43689</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>195</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>213030</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>234</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>256719</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>133</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3889,8 +4264,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87168666-A65C-42A5-8F8A-ECA4346A9A3F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA218A0-2E5B-40D4-8DFD-0046C9065F8D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3906,7 +4281,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4016,7 +4391,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -4028,13 +4403,13 @@
         <v>8755</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4043,13 +4418,13 @@
         <v>9687</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,7 +4445,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4079,13 +4454,13 @@
         <v>2803</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4094,13 +4469,13 @@
         <v>2803</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4543,13 @@
         <v>1887</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4183,10 +4558,10 @@
         <v>13151</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -4198,13 +4573,13 @@
         <v>15038</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,10 +4594,10 @@
         <v>4060</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>11</v>
@@ -4234,13 +4609,13 @@
         <v>1847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -4249,13 +4624,13 @@
         <v>5906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,7 +4698,7 @@
         <v>1055</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
@@ -4338,10 +4713,10 @@
         <v>26070</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -4353,13 +4728,13 @@
         <v>27126</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,7 +4749,7 @@
         <v>3040</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>21</v>
@@ -4389,13 +4764,13 @@
         <v>902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -4404,13 +4779,13 @@
         <v>3941</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,10 +4853,10 @@
         <v>5344</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -4493,13 +4868,13 @@
         <v>18459</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4508,13 +4883,13 @@
         <v>23802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4904,13 @@
         <v>1387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4544,13 +4919,13 @@
         <v>6413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4559,13 +4934,13 @@
         <v>7801</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,10 +5008,10 @@
         <v>6449</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -4648,10 +5023,10 @@
         <v>18424</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4663,10 +5038,10 @@
         <v>24873</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4684,13 +5059,13 @@
         <v>1175</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4699,13 +5074,13 @@
         <v>1103</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4714,13 +5089,13 @@
         <v>2278</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,49 +5157,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>16226</v>
+        <v>6077</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>42733</v>
+        <v>16646</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="N19" s="7">
-        <v>58959</v>
+        <v>22722</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,28 +5214,28 @@
         <v>924</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4869,13 +5244,13 @@
         <v>5119</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,10 +5259,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D21" s="7">
-        <v>17150</v>
+        <v>7001</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -4899,10 +5274,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I21" s="7">
-        <v>46927</v>
+        <v>20841</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -4914,10 +5289,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N21" s="7">
-        <v>64078</v>
+        <v>27841</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -4931,55 +5306,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7">
+        <v>10149</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="7">
+        <v>20</v>
+      </c>
+      <c r="I22" s="7">
+        <v>26087</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="7">
         <v>32</v>
       </c>
-      <c r="D22" s="7">
-        <v>31892</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H22" s="7">
-        <v>118</v>
-      </c>
-      <c r="I22" s="7">
-        <v>127592</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M22" s="7">
-        <v>150</v>
-      </c>
       <c r="N22" s="7">
-        <v>159485</v>
+        <v>36236</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,49 +5363,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>10586</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H23" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>17262</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>27848</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>332</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,63 +5414,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7">
+        <v>10149</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="7">
+        <v>26087</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>32</v>
+      </c>
+      <c r="N24" s="7">
+        <v>36236</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>32</v>
+      </c>
+      <c r="D25" s="7">
+        <v>31892</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H25" s="7">
+        <v>118</v>
+      </c>
+      <c r="I25" s="7">
+        <v>127592</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M25" s="7">
+        <v>150</v>
+      </c>
+      <c r="N25" s="7">
+        <v>159485</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7">
+        <v>10586</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H26" s="7">
+        <v>17</v>
+      </c>
+      <c r="I26" s="7">
+        <v>17262</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M26" s="7">
+        <v>27</v>
+      </c>
+      <c r="N26" s="7">
+        <v>27848</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>42</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>42478</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>135</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>144854</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>177</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>187333</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>133</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
